--- a/xlsx/自然科学_intext.xlsx
+++ b/xlsx/自然科学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="764">
   <si>
     <t>自然科学</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E5%BC%8F%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>形式科學</t>
+    <t>形式科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%BB%E8%BE%91</t>
@@ -65,19 +65,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AB%96%E8%A8%88%E7%AE%97%E6%A9%9F%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>理論計算機科學</t>
+    <t>理论计算机科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>物理科學</t>
+    <t>物理科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>化學</t>
+    <t>化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%B8%E7%A2%B1%E7%90%86%E8%AE%BA</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%88%86%E5%AD%90%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>超分子化學</t>
+    <t>超分子化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%BF%E8%89%B2%E5%8C%96%E5%AD%A6</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>食品化學</t>
+    <t>食品化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%8C%96%E5%AD%A6</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E5%85%B8%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>經典物理學</t>
+    <t>经典物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>現代物理學</t>
+    <t>现代物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E7%94%A8%E7%89%A9%E7%90%86%E5%AD%A6</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗物理學</t>
+    <t>实验物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AE%BA%E7%89%A9%E7%90%86%E5%AD%A6</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%92%E5%AD%90%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>粒子物理學</t>
+    <t>粒子物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%A6%BB%E5%AD%90%E4%BD%93</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%8A%9B%E5%AD%B8%E5%85%A5%E9%96%80</t>
   </si>
   <si>
-    <t>量子力學入門</t>
+    <t>量子力学入门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AD%E4%B9%89%E7%9B%B8%E5%AF%B9%E8%AE%BA</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E7%BE%A9%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>廣義相對論</t>
+    <t>广义相对论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%8F%98%E5%AD%A6</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A6%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>弦理論</t>
+    <t>弦理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%8A%9B%E5%AD%A6</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>自然地理學</t>
+    <t>自然地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E8%B4%A8%E5%AD%A6</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%B2%BC%E5%AD%B8</t>
   </si>
   <si>
-    <t>湖沼學</t>
+    <t>湖沼学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%94%E8%B1%A1%E5%AD%A6</t>
@@ -461,13 +461,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%B0%A3%E5%80%99%E5%AD%B8</t>
   </si>
   <si>
-    <t>古氣候學</t>
+    <t>古气候学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>古生態學</t>
+    <t>古生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A2%E7%B2%89%E5%AD%A6</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>天文學</t>
+    <t>天文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%93%E7%89%A9%E7%90%86%E5%AD%A6</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E6%B2%B3%E7%B3%BB%E5%A4%A9%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>銀河系天文學</t>
+    <t>银河系天文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E5%9C%B0%E8%B3%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>行星地質學</t>
+    <t>行星地质学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E7%A7%91%E5%AD%A6</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>生命科學</t>
+    <t>生命科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%AB%94%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>天體生物學</t>
+    <t>天体生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%9C%B0%E7%90%86%E5%AD%A6</t>
@@ -599,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%82%B2%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>保育生物學</t>
+    <t>保育生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E6%B8%A9%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -653,7 +653,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E5%AD%B8</t>
   </si>
   <si>
-    <t>老人學</t>
+    <t>老人学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E7%96%AB%E5%AD%A6</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%B0%84%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>放射生物學</t>
+    <t>放射生物学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Soil_biology</t>
@@ -719,13 +719,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會生物學</t>
+    <t>社会生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1%E5%88%86%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>系統分類學</t>
+    <t>系统分类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E7%90%86%E5%AD%A6</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪學</t>
+    <t>犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
@@ -791,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E5%AD%B8</t>
   </si>
   <si>
-    <t>國際關係學</t>
+    <t>国际关系学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%A6</t>
@@ -827,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%95%99%E8%82%B2</t>
   </si>
   <si>
-    <t>科學教育</t>
+    <t>科学教育</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%AD%A6</t>
@@ -839,7 +839,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
@@ -887,13 +887,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>計算機工程</t>
+    <t>计算机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>電機工程學</t>
+    <t>电机工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E9%98%B2%E5%B7%A5%E7%A8%8B</t>
@@ -923,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>軍事工程</t>
+    <t>军事工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%BF%E4%B8%9A%E5%B7%A5%E7%A8%8B</t>
@@ -941,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%B1%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>運籌學</t>
+    <t>运筹学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E5%99%A8%E4%BA%BA%E5%AD%A6</t>
@@ -965,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E8%A1%9B%E7%94%9F%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>醫療衛生科學</t>
+    <t>医疗卫生科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>牙醫學</t>
+    <t>牙医学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Midwifery</t>
@@ -1025,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物倫理學</t>
+    <t>生物伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
@@ -1037,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B5%B1%E8%A8%88%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物統計學</t>
+    <t>生物统计学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A4%E7%9F%A5%E7%A7%91%E5%AD%A6</t>
@@ -1091,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>演化心理學</t>
+    <t>演化心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%A7%91%E5%AD%A6</t>
@@ -1115,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%90%86%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>數理生物學</t>
+    <t>数理生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E7%89%A9%E7%90%86</t>
@@ -1157,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%A6%E8%99%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>符號學</t>
+    <t>符号学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6</t>
@@ -1271,13 +1271,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>科學史</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-科學</t>
+    <t>Template talk-科学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sociology_of_the_history_of_science</t>
@@ -1307,7 +1304,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E9%BB%83%E9%87%91%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>伊斯蘭黃金時代</t>
+    <t>伊斯兰黄金时代</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_science_in_the_Renaissance</t>
@@ -1343,7 +1340,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E7%A7%91%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>中世紀科學史</t>
+    <t>中世纪科学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A7%91%E5%AD%A6%E5%8F%B2</t>
@@ -1361,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E4%BC%8A%E6%96%AF%E8%98%AD%E4%B8%96%E7%95%8C%E7%9A%84%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀伊斯蘭世界的科學</t>
+    <t>中世纪伊斯兰世界的科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%AD%A6%E5%8F%B2</t>
@@ -1487,7 +1484,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>人類學史</t>
+    <t>人类学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%80%9D%E6%83%B3%E5%8F%B2</t>
@@ -1499,13 +1496,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>地理學歷史</t>
+    <t>地理学历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>語言學史</t>
+    <t>语言学史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%A6%E5%8F%B2</t>
@@ -1517,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>社會學史</t>
+    <t>社会学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_sustainability</t>
@@ -1613,13 +1610,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6</t>
   </si>
   <si>
-    <t>化学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%AD%B8</t>
   </si>
   <si>
-    <t>人文學</t>
+    <t>人文学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
@@ -1709,27 +1703,15 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>自然科學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>物理學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>地球科學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%AD%A6%E7%A7%91%E5%88%86%E7%B1%BB%E4%B8%8E%E4%BB%A3%E7%A0%81%E5%9B%BD%E5%AE%B6%E6%A0%87%E5%87%86</t>
   </si>
   <si>
@@ -1799,9 +1781,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%AD%A6</t>
   </si>
   <si>
-    <t>天文学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%AD%A6%E7%A7%91%E5%88%86%E7%B1%BB%E5%9B%BD%E5%AE%B6%E6%A0%87%E5%87%86/170</t>
   </si>
   <si>
@@ -2309,7 +2288,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%94%E8%82%B2%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>體育科學</t>
+    <t>体育科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%AD%A6%E7%A7%91%E5%88%86%E7%B1%BB%E5%9B%BD%E5%AE%B6%E6%A0%87%E5%87%86/910</t>
@@ -2321,7 +2300,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -8730,7 +8709,7 @@
         <v>417</v>
       </c>
       <c r="F209" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="G209" t="n">
         <v>13</v>
@@ -8756,10 +8735,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>418</v>
+      </c>
+      <c r="F210" t="s">
         <v>419</v>
-      </c>
-      <c r="F210" t="s">
-        <v>420</v>
       </c>
       <c r="G210" t="n">
         <v>13</v>
@@ -8785,10 +8764,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>420</v>
+      </c>
+      <c r="F211" t="s">
         <v>421</v>
-      </c>
-      <c r="F211" t="s">
-        <v>422</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8814,10 +8793,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>422</v>
+      </c>
+      <c r="F212" t="s">
         <v>423</v>
-      </c>
-      <c r="F212" t="s">
-        <v>424</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8843,10 +8822,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>424</v>
+      </c>
+      <c r="F213" t="s">
         <v>425</v>
-      </c>
-      <c r="F213" t="s">
-        <v>426</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8872,10 +8851,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>426</v>
+      </c>
+      <c r="F214" t="s">
         <v>427</v>
-      </c>
-      <c r="F214" t="s">
-        <v>428</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8901,10 +8880,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>428</v>
+      </c>
+      <c r="F215" t="s">
         <v>429</v>
-      </c>
-      <c r="F215" t="s">
-        <v>430</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8930,10 +8909,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>430</v>
+      </c>
+      <c r="F216" t="s">
         <v>431</v>
-      </c>
-      <c r="F216" t="s">
-        <v>432</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8959,10 +8938,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>432</v>
+      </c>
+      <c r="F217" t="s">
         <v>433</v>
-      </c>
-      <c r="F217" t="s">
-        <v>434</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8988,10 +8967,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>434</v>
+      </c>
+      <c r="F218" t="s">
         <v>435</v>
-      </c>
-      <c r="F218" t="s">
-        <v>436</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9017,10 +8996,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>436</v>
+      </c>
+      <c r="F219" t="s">
         <v>437</v>
-      </c>
-      <c r="F219" t="s">
-        <v>438</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9046,10 +9025,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>438</v>
+      </c>
+      <c r="F220" t="s">
         <v>439</v>
-      </c>
-      <c r="F220" t="s">
-        <v>440</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9075,10 +9054,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>440</v>
+      </c>
+      <c r="F221" t="s">
         <v>441</v>
-      </c>
-      <c r="F221" t="s">
-        <v>442</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9104,10 +9083,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>442</v>
+      </c>
+      <c r="F222" t="s">
         <v>443</v>
-      </c>
-      <c r="F222" t="s">
-        <v>444</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9133,10 +9112,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>444</v>
+      </c>
+      <c r="F223" t="s">
         <v>445</v>
-      </c>
-      <c r="F223" t="s">
-        <v>446</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9162,10 +9141,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>446</v>
+      </c>
+      <c r="F224" t="s">
         <v>447</v>
-      </c>
-      <c r="F224" t="s">
-        <v>448</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9191,10 +9170,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>448</v>
+      </c>
+      <c r="F225" t="s">
         <v>449</v>
-      </c>
-      <c r="F225" t="s">
-        <v>450</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9220,10 +9199,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>450</v>
+      </c>
+      <c r="F226" t="s">
         <v>451</v>
-      </c>
-      <c r="F226" t="s">
-        <v>452</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9249,10 +9228,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>452</v>
+      </c>
+      <c r="F227" t="s">
         <v>453</v>
-      </c>
-      <c r="F227" t="s">
-        <v>454</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9278,10 +9257,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>454</v>
+      </c>
+      <c r="F228" t="s">
         <v>455</v>
-      </c>
-      <c r="F228" t="s">
-        <v>456</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9307,10 +9286,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>456</v>
+      </c>
+      <c r="F229" t="s">
         <v>457</v>
-      </c>
-      <c r="F229" t="s">
-        <v>458</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9336,10 +9315,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>458</v>
+      </c>
+      <c r="F230" t="s">
         <v>459</v>
-      </c>
-      <c r="F230" t="s">
-        <v>460</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9365,10 +9344,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>460</v>
+      </c>
+      <c r="F231" t="s">
         <v>461</v>
-      </c>
-      <c r="F231" t="s">
-        <v>462</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9394,10 +9373,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>462</v>
+      </c>
+      <c r="F232" t="s">
         <v>463</v>
-      </c>
-      <c r="F232" t="s">
-        <v>464</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9423,10 +9402,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>464</v>
+      </c>
+      <c r="F233" t="s">
         <v>465</v>
-      </c>
-      <c r="F233" t="s">
-        <v>466</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9452,10 +9431,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>466</v>
+      </c>
+      <c r="F234" t="s">
         <v>467</v>
-      </c>
-      <c r="F234" t="s">
-        <v>468</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9481,10 +9460,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>468</v>
+      </c>
+      <c r="F235" t="s">
         <v>469</v>
-      </c>
-      <c r="F235" t="s">
-        <v>470</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9510,10 +9489,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>470</v>
+      </c>
+      <c r="F236" t="s">
         <v>471</v>
-      </c>
-      <c r="F236" t="s">
-        <v>472</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9539,10 +9518,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>472</v>
+      </c>
+      <c r="F237" t="s">
         <v>473</v>
-      </c>
-      <c r="F237" t="s">
-        <v>474</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9568,10 +9547,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>474</v>
+      </c>
+      <c r="F238" t="s">
         <v>475</v>
-      </c>
-      <c r="F238" t="s">
-        <v>476</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9597,10 +9576,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>476</v>
+      </c>
+      <c r="F239" t="s">
         <v>477</v>
-      </c>
-      <c r="F239" t="s">
-        <v>478</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9626,10 +9605,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>478</v>
+      </c>
+      <c r="F240" t="s">
         <v>479</v>
-      </c>
-      <c r="F240" t="s">
-        <v>480</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9655,10 +9634,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>480</v>
+      </c>
+      <c r="F241" t="s">
         <v>481</v>
-      </c>
-      <c r="F241" t="s">
-        <v>482</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9684,10 +9663,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>482</v>
+      </c>
+      <c r="F242" t="s">
         <v>483</v>
-      </c>
-      <c r="F242" t="s">
-        <v>484</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9713,10 +9692,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>484</v>
+      </c>
+      <c r="F243" t="s">
         <v>485</v>
-      </c>
-      <c r="F243" t="s">
-        <v>486</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9742,10 +9721,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>486</v>
+      </c>
+      <c r="F244" t="s">
         <v>487</v>
-      </c>
-      <c r="F244" t="s">
-        <v>488</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9771,10 +9750,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>488</v>
+      </c>
+      <c r="F245" t="s">
         <v>489</v>
-      </c>
-      <c r="F245" t="s">
-        <v>490</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9800,10 +9779,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>490</v>
+      </c>
+      <c r="F246" t="s">
         <v>491</v>
-      </c>
-      <c r="F246" t="s">
-        <v>492</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9829,10 +9808,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>492</v>
+      </c>
+      <c r="F247" t="s">
         <v>493</v>
-      </c>
-      <c r="F247" t="s">
-        <v>494</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9858,10 +9837,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>494</v>
+      </c>
+      <c r="F248" t="s">
         <v>495</v>
-      </c>
-      <c r="F248" t="s">
-        <v>496</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9887,10 +9866,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>496</v>
+      </c>
+      <c r="F249" t="s">
         <v>497</v>
-      </c>
-      <c r="F249" t="s">
-        <v>498</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9916,10 +9895,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>498</v>
+      </c>
+      <c r="F250" t="s">
         <v>499</v>
-      </c>
-      <c r="F250" t="s">
-        <v>500</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9945,10 +9924,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>500</v>
+      </c>
+      <c r="F251" t="s">
         <v>501</v>
-      </c>
-      <c r="F251" t="s">
-        <v>502</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9974,10 +9953,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>502</v>
+      </c>
+      <c r="F252" t="s">
         <v>503</v>
-      </c>
-      <c r="F252" t="s">
-        <v>504</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10003,10 +9982,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>504</v>
+      </c>
+      <c r="F253" t="s">
         <v>505</v>
-      </c>
-      <c r="F253" t="s">
-        <v>506</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10032,10 +10011,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>506</v>
+      </c>
+      <c r="F254" t="s">
         <v>507</v>
-      </c>
-      <c r="F254" t="s">
-        <v>508</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10061,10 +10040,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>508</v>
+      </c>
+      <c r="F255" t="s">
         <v>509</v>
-      </c>
-      <c r="F255" t="s">
-        <v>510</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10090,10 +10069,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>510</v>
+      </c>
+      <c r="F256" t="s">
         <v>511</v>
-      </c>
-      <c r="F256" t="s">
-        <v>512</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10119,10 +10098,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>512</v>
+      </c>
+      <c r="F257" t="s">
         <v>513</v>
-      </c>
-      <c r="F257" t="s">
-        <v>514</v>
       </c>
       <c r="G257" t="n">
         <v>2</v>
@@ -10148,10 +10127,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>514</v>
+      </c>
+      <c r="F258" t="s">
         <v>515</v>
-      </c>
-      <c r="F258" t="s">
-        <v>516</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10177,10 +10156,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>516</v>
+      </c>
+      <c r="F259" t="s">
         <v>517</v>
-      </c>
-      <c r="F259" t="s">
-        <v>518</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10206,10 +10185,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>518</v>
+      </c>
+      <c r="F260" t="s">
         <v>519</v>
-      </c>
-      <c r="F260" t="s">
-        <v>520</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10235,10 +10214,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>520</v>
+      </c>
+      <c r="F261" t="s">
         <v>521</v>
-      </c>
-      <c r="F261" t="s">
-        <v>522</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10264,10 +10243,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>522</v>
+      </c>
+      <c r="F262" t="s">
         <v>523</v>
-      </c>
-      <c r="F262" t="s">
-        <v>524</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10293,10 +10272,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>524</v>
+      </c>
+      <c r="F263" t="s">
         <v>525</v>
-      </c>
-      <c r="F263" t="s">
-        <v>526</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10322,10 +10301,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>526</v>
+      </c>
+      <c r="F264" t="s">
         <v>527</v>
-      </c>
-      <c r="F264" t="s">
-        <v>528</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10351,10 +10330,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>528</v>
+      </c>
+      <c r="F265" t="s">
         <v>529</v>
-      </c>
-      <c r="F265" t="s">
-        <v>530</v>
       </c>
       <c r="G265" t="n">
         <v>5</v>
@@ -10380,10 +10359,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F266" t="s">
-        <v>532</v>
+        <v>20</v>
       </c>
       <c r="G266" t="n">
         <v>21</v>
@@ -10438,10 +10417,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F268" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10496,10 +10475,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F270" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10525,10 +10504,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F271" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10554,10 +10533,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F272" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10583,10 +10562,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F273" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10612,10 +10591,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F274" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10641,10 +10620,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F275" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G275" t="n">
         <v>5</v>
@@ -10670,10 +10649,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F276" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10699,10 +10678,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F277" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10728,10 +10707,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F278" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10757,10 +10736,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F279" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10786,10 +10765,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F280" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G280" t="n">
         <v>4</v>
@@ -10815,10 +10794,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F281" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -10844,10 +10823,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F282" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G282" t="n">
         <v>38</v>
@@ -10873,10 +10852,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F283" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10902,10 +10881,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F284" t="s">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10931,10 +10910,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F285" t="s">
-        <v>566</v>
+        <v>66</v>
       </c>
       <c r="G285" t="n">
         <v>6</v>
@@ -10960,10 +10939,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F286" t="s">
-        <v>568</v>
+        <v>116</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10989,10 +10968,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F287" t="s">
-        <v>570</v>
+        <v>174</v>
       </c>
       <c r="G287" t="n">
         <v>7</v>
@@ -11018,10 +10997,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F288" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11047,10 +11026,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F289" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11105,10 +11084,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F291" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G291" t="n">
         <v>3</v>
@@ -11134,10 +11113,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F292" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11163,10 +11142,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F293" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11192,10 +11171,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F294" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11221,10 +11200,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F295" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11250,10 +11229,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F296" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11279,10 +11258,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F297" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11308,10 +11287,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F298" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G298" t="n">
         <v>3</v>
@@ -11337,10 +11316,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F299" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11366,10 +11345,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F300" t="s">
-        <v>594</v>
+        <v>158</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11395,10 +11374,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F301" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="G301" t="n">
         <v>3</v>
@@ -11424,10 +11403,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="F302" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G302" t="n">
         <v>4</v>
@@ -11453,10 +11432,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="F303" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11482,10 +11461,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F304" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11511,10 +11490,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="F305" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11540,10 +11519,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F306" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11569,10 +11548,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="F307" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11598,10 +11577,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="F308" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11627,10 +11606,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="F309" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11656,10 +11635,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="F310" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11685,10 +11664,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="F311" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11714,10 +11693,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="F312" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11743,10 +11722,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="F313" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11772,10 +11751,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="F314" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11801,10 +11780,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F315" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11830,10 +11809,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="F316" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11859,10 +11838,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F317" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11888,10 +11867,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F318" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11917,10 +11896,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="F319" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11946,10 +11925,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F320" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11975,10 +11954,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="F321" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12004,10 +11983,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="F322" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12033,10 +12012,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="F323" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12062,10 +12041,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="F324" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12091,10 +12070,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="F325" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12120,10 +12099,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="F326" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12149,10 +12128,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="F327" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12178,10 +12157,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="F328" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12207,10 +12186,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="F329" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12236,10 +12215,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="F330" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12265,10 +12244,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="F331" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12294,10 +12273,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="F332" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12323,10 +12302,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F333" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12352,10 +12331,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="F334" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12381,10 +12360,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="F335" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12410,10 +12389,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="F336" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12439,10 +12418,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="F337" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12468,10 +12447,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F338" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12497,10 +12476,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="F339" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12526,10 +12505,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="F340" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12555,10 +12534,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F341" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12584,10 +12563,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="F342" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12613,10 +12592,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="F343" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12642,10 +12621,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F344" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12671,10 +12650,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="F345" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12700,10 +12679,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="F346" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12729,10 +12708,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="F347" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12758,10 +12737,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="F348" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12787,10 +12766,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="F349" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12816,10 +12795,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F350" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12845,10 +12824,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="F351" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G351" t="n">
         <v>2</v>
@@ -12874,10 +12853,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="F352" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12903,10 +12882,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="F353" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12932,10 +12911,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="F354" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12961,10 +12940,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="F355" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12990,10 +12969,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="F356" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13019,10 +12998,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="F357" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13048,10 +13027,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="F358" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13077,10 +13056,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="F359" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13106,10 +13085,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="F360" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13135,10 +13114,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="F361" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13164,10 +13143,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F362" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13193,10 +13172,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="F363" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13222,10 +13201,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="F364" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G364" t="n">
         <v>5</v>
@@ -13251,10 +13230,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="F365" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13280,10 +13259,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="F366" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13309,10 +13288,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="F367" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13338,10 +13317,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="F368" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13367,10 +13346,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="F369" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13396,10 +13375,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="F370" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13425,10 +13404,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="F371" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13454,10 +13433,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="F372" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13483,10 +13462,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="F373" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13512,10 +13491,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="F374" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13541,10 +13520,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="F375" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13570,10 +13549,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="F376" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13599,10 +13578,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="F377" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13628,10 +13607,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="F378" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13657,10 +13636,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F379" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13686,10 +13665,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F380" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -13715,10 +13694,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="F381" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13744,10 +13723,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="F382" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13773,10 +13752,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="F383" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -13802,10 +13781,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="F384" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13831,10 +13810,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="F385" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13860,10 +13839,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="F386" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13889,10 +13868,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="F387" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="G387" t="n">
         <v>3</v>
@@ -13918,10 +13897,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="F388" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
